--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">

--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">

--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,40 +1,441 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="11520" windowHeight="8555"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Idnumber</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>BhaKth\_bH0lenath\_ka</t>
+  </si>
+  <si>
+    <t>Saimy\_02</t>
+  </si>
+  <si>
+    <t>rvsinghr</t>
+  </si>
+  <si>
+    <t>✿ꜱʜɪᴢᴜᴋᴀ࿐</t>
+  </si>
+  <si>
+    <t>GroupAnonymousBot</t>
+  </si>
+  <si>
+    <t>O000000000O00000000O</t>
+  </si>
+  <si>
+    <t>Siiivu_official</t>
+  </si>
+  <si>
+    <t>sweet_Kristy_04</t>
+  </si>
+  <si>
+    <t>_♦️ Schuyler ♦️_</t>
+  </si>
+  <si>
+    <t>Unknown1432168</t>
+  </si>
+  <si>
+    <t>Comrade</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,85 +443,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -403,94 +1031,159 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Idnumber</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>5080276560</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BhaKth\_bH0lenath\_ka</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>172</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>6978523303</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Saimy\_02</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>1067127529</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>rvsinghr</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>5371754371</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>✿ꜱʜɪᴢᴜᴋᴀ࿐</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1087968824</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6052486101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5655744218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5782974593</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5240335516</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>487549586</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6780690102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,249 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="8555"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21216" windowHeight="8520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Idnumber</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>BhaKth\_bH0lenath\_ka</t>
-  </si>
-  <si>
-    <t>Saimy\_02</t>
-  </si>
-  <si>
-    <t>rvsinghr</t>
-  </si>
-  <si>
-    <t>✿ꜱʜɪᴢᴜᴋᴀ࿐</t>
-  </si>
-  <si>
-    <t>GroupAnonymousBot</t>
-  </si>
-  <si>
-    <t>O000000000O00000000O</t>
-  </si>
-  <si>
-    <t>Siiivu_official</t>
-  </si>
-  <si>
-    <t>sweet_Kristy_04</t>
-  </si>
-  <si>
-    <t>_♦️ Schuyler ♦️_</t>
-  </si>
-  <si>
-    <t>Unknown1432168</t>
-  </si>
-  <si>
-    <t>Comrade</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -543,154 +481,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -744,11 +682,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1035,155 +1036,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
+    <col width="29.1111111111111" customWidth="1" min="1" max="1"/>
+    <col width="34.7777777777778" customWidth="1" min="2" max="2"/>
+    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Idnumber</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5080276560</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BhaKth\_bH0lenath\_ka</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6978523303</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Saimy\_02</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1067127529</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rvsinghr</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>5080276560</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5371754371</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>✿ꜱʜɪᴢᴜᴋᴀ࿐</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>172</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>6978523303</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1087968824</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GroupAnonymousBot</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1067127529</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6052486101</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>O000000000O00000000O</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5655744218</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Siiivu\_official</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5782974593</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>sweet\_Kristy\_04</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5240335516</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>\_♦️ Schuyler ♦️\_</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>5371754371</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>487549586</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Unknown1432168</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1087968824</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6052486101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>5655744218</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>5782974593</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>5240335516</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>487549586</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>6780690102</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Comrade</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,187 +1,254 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21216" windowHeight="8520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="21216" windowHeight="8964"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Idnumber</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>BhaKth\_bH0lenath\_ka</t>
+  </si>
+  <si>
+    <t>Saimy\_02</t>
+  </si>
+  <si>
+    <t>rvsinghr</t>
+  </si>
+  <si>
+    <t>✿ꜱʜɪᴢᴜᴋᴀ࿐</t>
+  </si>
+  <si>
+    <t>GroupAnonymousBot</t>
+  </si>
+  <si>
+    <t>O000000000O00000000O</t>
+  </si>
+  <si>
+    <t>Siiivu\_official</t>
+  </si>
+  <si>
+    <t>sweet\_Kristy\_04</t>
+  </si>
+  <si>
+    <t>\_♦️ Schuyler ♦️\_</t>
+  </si>
+  <si>
+    <t>Unknown1432168</t>
+  </si>
+  <si>
+    <t>Comrade</t>
+  </si>
+  <si>
+    <t>iiisu</t>
+  </si>
+  <si>
+    <t>aashiii</t>
+  </si>
+  <si>
+    <t>M_J_138</t>
+  </si>
+  <si>
+    <t>Nilesh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
+  <fonts count="20">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -481,154 +548,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,74 +749,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1036,185 +1040,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col width="29.1111111111111" customWidth="1" min="1" max="1"/>
-    <col width="34.7777777777778" customWidth="1" min="2" max="2"/>
-    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Idnumber</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>5080276560</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BhaKth\_bH0lenath\_ka</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>6978523303</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Saimy\_02</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1067127529</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5371754371</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1087968824</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1067127529</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>rvsinghr</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="C6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6052486101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5655744218</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5782974593</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>5240335516</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>487549586</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6780690102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>2042265351</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>7437810654</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5371754371</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>✿ꜱʜɪᴢᴜᴋᴀ࿐</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1087968824</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GroupAnonymousBot</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6052486101</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>O000000000O00000000O</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5655744218</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Siiivu\_official</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5782974593</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>sweet\_Kristy\_04</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5240335516</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>\_♦️ Schuyler ♦️\_</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>487549586</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Unknown1432168</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>6780690102</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Comrade</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>15</v>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>6158131820</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>6689052608</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>689744830</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,254 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8964"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21216" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Idnumber</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>BhaKth\_bH0lenath\_ka</t>
-  </si>
-  <si>
-    <t>Saimy\_02</t>
-  </si>
-  <si>
-    <t>rvsinghr</t>
-  </si>
-  <si>
-    <t>✿ꜱʜɪᴢᴜᴋᴀ࿐</t>
-  </si>
-  <si>
-    <t>GroupAnonymousBot</t>
-  </si>
-  <si>
-    <t>O000000000O00000000O</t>
-  </si>
-  <si>
-    <t>Siiivu\_official</t>
-  </si>
-  <si>
-    <t>sweet\_Kristy\_04</t>
-  </si>
-  <si>
-    <t>\_♦️ Schuyler ♦️\_</t>
-  </si>
-  <si>
-    <t>Unknown1432168</t>
-  </si>
-  <si>
-    <t>Comrade</t>
-  </si>
-  <si>
-    <t>iiisu</t>
-  </si>
-  <si>
-    <t>aashiii</t>
-  </si>
-  <si>
-    <t>M_J_138</t>
-  </si>
-  <si>
-    <t>Nilesh</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -549,153 +475,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,11 +675,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1040,208 +1029,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
+    <col width="29.1111111111111" customWidth="1" min="1" max="1"/>
+    <col width="34.7777777777778" customWidth="1" min="2" max="2"/>
+    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Idnumber</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>5080276560</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>183</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BhaKth_bH0lenath_ka</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>129.51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1087968824</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GroupAnonymousBot</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6052486101</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>O000000000O00000000O</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>6978523303</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>1067127529</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>5371754371</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1087968824</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>6052486101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>5655744218</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>5782974593</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>5240335516</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>487549586</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>6780690102</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2042265351</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>7437810654</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>6158131820</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>6689052608</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>689744830</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saimy_02</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14.88</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1113,7 +1113,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14.88</v>
+        <v>20.81</v>
       </c>
     </row>
   </sheetData>

--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,180 +1,224 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21216" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="21216" windowHeight="8964"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Idnumber</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>BhaKth_bH0lenath_ka</t>
+  </si>
+  <si>
+    <t>GroupAnonymousBot</t>
+  </si>
+  <si>
+    <t>O000000000O00000000O</t>
+  </si>
+  <si>
+    <t>Saimy_02</t>
+  </si>
+  <si>
+    <t>villoriaa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -475,153 +519,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,74 +719,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1029,94 +1010,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col width="29.1111111111111" customWidth="1" min="1" max="1"/>
-    <col width="34.7777777777778" customWidth="1" min="2" max="2"/>
-    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Idnumber</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>5080276560</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BhaKth_bH0lenath_ka</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>129.51</v>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>132.31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>1087968824</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GroupAnonymousBot</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16.16</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>6052486101</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>O000000000O00000000O</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54.92</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>65.64</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>6978523303</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Saimy_02</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>20.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>6095300106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>55.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,224 +1,180 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8964"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21216" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Idnumber</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>BhaKth_bH0lenath_ka</t>
-  </si>
-  <si>
-    <t>GroupAnonymousBot</t>
-  </si>
-  <si>
-    <t>O000000000O00000000O</t>
-  </si>
-  <si>
-    <t>Saimy_02</t>
-  </si>
-  <si>
-    <t>villoriaa</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -519,153 +475,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,11 +675,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1010,89 +1029,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
+    <col width="29.1111111111111" customWidth="1" min="1" max="1"/>
+    <col width="34.7777777777778" customWidth="1" min="2" max="2"/>
+    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Idnumber</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5080276560</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BhaKth_bH0lenath_ka</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>147.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1087968824</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GroupAnonymousBot</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>5080276560</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>132.31</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6052486101</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>O000000000O00000000O</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>129.88</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1087968824</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6978523303</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saimy_02</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20.81</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>6052486101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>65.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>6978523303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>20.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>6095300106</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>villoriaa</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>55.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1074,7 +1074,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>147.78</v>
+        <v>155.87</v>
       </c>
     </row>
     <row r="3">

--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,180 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="21216" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="21216" windowHeight="8964"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Idnumber</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>BhaKth_bH0lenath_ka</t>
+  </si>
+  <si>
+    <t>GroupAnonymousBot</t>
+  </si>
+  <si>
+    <t>O000000000O00000000O</t>
+  </si>
+  <si>
+    <t>Saimy_02</t>
+  </si>
+  <si>
+    <t>villoriaa</t>
+  </si>
+  <si>
+    <t>Siiivu_official</t>
+  </si>
+  <si>
+    <t>iiisuu</t>
+  </si>
+  <si>
+    <t>good_soul007</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Literally_spaghettified</t>
+  </si>
+  <si>
+    <t>Happy_jaiss</t>
+  </si>
+  <si>
+    <t>On9_op</t>
+  </si>
+  <si>
+    <t>silverdoee</t>
+  </si>
+  <si>
+    <t>freakyyfella</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>SON_OF_BETTY</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -475,153 +552,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,74 +752,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1029,107 +1043,219 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col width="29.1111111111111" customWidth="1" min="1" max="1"/>
-    <col width="34.7777777777778" customWidth="1" min="2" max="2"/>
-    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Idnumber</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>5080276560</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BhaKth_bH0lenath_ka</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>155.87</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>1087968824</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GroupAnonymousBot</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>6052486101</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>O000000000O00000000O</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>129.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>161.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>6978523303</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Saimy_02</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>20.81</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>6095300106</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>villoriaa</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>55.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5655744218</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7230617879</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8">
+        <v>148.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2042265351</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>7.96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>7253921931</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>7999340095</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>48.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6541659493</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>358.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>5473966755</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>53.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>7180954313</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>13.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>6559548939</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>95.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>5978633421</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>5429959066</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>6892127448</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>3.32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,257 +1,181 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="8964"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="11520" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Idnumber</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>BhaKth_bH0lenath_ka</t>
-  </si>
-  <si>
-    <t>GroupAnonymousBot</t>
-  </si>
-  <si>
-    <t>O000000000O00000000O</t>
-  </si>
-  <si>
-    <t>Saimy_02</t>
-  </si>
-  <si>
-    <t>villoriaa</t>
-  </si>
-  <si>
-    <t>Siiivu_official</t>
-  </si>
-  <si>
-    <t>iiisuu</t>
-  </si>
-  <si>
-    <t>good_soul007</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Literally_spaghettified</t>
-  </si>
-  <si>
-    <t>Happy_jaiss</t>
-  </si>
-  <si>
-    <t>On9_op</t>
-  </si>
-  <si>
-    <t>silverdoee</t>
-  </si>
-  <si>
-    <t>freakyyfella</t>
-  </si>
-  <si>
-    <t>Aman</t>
-  </si>
-  <si>
-    <t>SON_OF_BETTY</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -552,153 +476,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,11 +678,74 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1043,219 +1032,622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.1111111111111" customWidth="1"/>
-    <col min="2" max="2" width="34.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
+    <col width="15.7777777777778" customWidth="1" min="1" max="1"/>
+    <col width="25.75" customWidth="1" min="2" max="2"/>
+    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Idnumber</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5080276560</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BhaKth_bH0lenath_ka</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>306.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1087968824</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GroupAnonymousBot</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6052486101</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>O000000000O00000000O</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1587.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6978523303</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saimy_02</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>151.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6095300106</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>villoriaa</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>697.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5655744218</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Siiivu_official</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>84.94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7230617879</v>
+      </c>
+      <c r="C8" t="n">
+        <v>655.26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2042265351</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>iiisuu</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>258.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7253921931</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>good_soul007</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7999340095</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1608.88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6541659493</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Literally_spaghettified</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2071.78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5473966755</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Happy_jaiss</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>334.82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7180954313</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>On9_op</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>158.17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6559548939</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>silverdoee</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>635.22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5978633421</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>freakyyfella</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>613.6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5429959066</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Aman</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>28.64</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6892127448</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SON_OF_BETTY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7167284051</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Hezal</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>165.67</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>7459060836</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Deleted Account</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>566.3200000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>7397664797</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Unforgettable_rach</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6709711588</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pastry111</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>155.89</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>7043214520</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Keerthi901</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1112874503</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>somesh_032</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>94.23999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1291880542</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Abhishek</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>7231081869</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BAJIRAMA</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>33.86</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6235157237</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FTW</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>120.45</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6352715996</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A_K_A_Gokul</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1067127529</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rvsinghr</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>72.86</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>7303425899</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ganeshjiblessme</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>7328502410</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>mihira79</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5966712206</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>7430618098</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>💀</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>945211132</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>literary_realm</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6689052608</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M_J_138</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1172796743</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Aditya62393</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6881170029</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ashmi0615</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>141.88</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5953105590</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HEZLIN</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>78.94</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>7392400575</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Retardedhead</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1659180872</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Harry_023</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>5080276560</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>155.87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1087968824</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>6052486101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>161.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>6978523303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>20.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>6095300106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>55.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5655744218</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>41.61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>7230617879</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8">
-        <v>148.26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2042265351</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>7.96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>7253921931</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>7999340095</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>48.82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>6541659493</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>358.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>5473966755</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>53.22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>7180954313</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>13.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>6559548939</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>95.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>5978633421</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>52.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>5429959066</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>28.64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>6892127448</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>3.32</v>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2073197457</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Radhe_sham_1108</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>186.07</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5240335516</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Shaswatsharma1</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>47.86</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6995074011</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ONLINE</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>43.36</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>689744830</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UnblockNilesh</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5412562253</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>DSP6419th</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13.41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6187124204</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>🌸</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>11.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -1,181 +1,354 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="11520" windowHeight="9000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="11520" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+  <si>
+    <t>Idnumber</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>BhaKth_bH0lenath_ka</t>
+  </si>
+  <si>
+    <t>GroupAnonymousBot</t>
+  </si>
+  <si>
+    <t>O000000000O00000000O</t>
+  </si>
+  <si>
+    <t>Saimy_02</t>
+  </si>
+  <si>
+    <t>villoriaa</t>
+  </si>
+  <si>
+    <t>Siiivu_official</t>
+  </si>
+  <si>
+    <t>‎ ㅤ</t>
+  </si>
+  <si>
+    <t>iiisuu</t>
+  </si>
+  <si>
+    <t>good_soul007</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Literally_spaghettified</t>
+  </si>
+  <si>
+    <t>Happy_jaiss</t>
+  </si>
+  <si>
+    <t>On9_op</t>
+  </si>
+  <si>
+    <t>silverdoee</t>
+  </si>
+  <si>
+    <t>freakyyfella</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>SON_OF_BETTY</t>
+  </si>
+  <si>
+    <t>Hezal</t>
+  </si>
+  <si>
+    <t>Deleted Account</t>
+  </si>
+  <si>
+    <t>Unforgettable_rach</t>
+  </si>
+  <si>
+    <t>Pastry111</t>
+  </si>
+  <si>
+    <t>Keerthi901</t>
+  </si>
+  <si>
+    <t>somesh_032</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>BAJIRAMA</t>
+  </si>
+  <si>
+    <t>FTW</t>
+  </si>
+  <si>
+    <t>A_K_A_Gokul</t>
+  </si>
+  <si>
+    <t>rvsinghr</t>
+  </si>
+  <si>
+    <t>ganeshjiblessme</t>
+  </si>
+  <si>
+    <t>mihira79</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>💀</t>
+  </si>
+  <si>
+    <t>literary_realm</t>
+  </si>
+  <si>
+    <t>M_J_138</t>
+  </si>
+  <si>
+    <t>Aditya62393</t>
+  </si>
+  <si>
+    <t>ashmi0615</t>
+  </si>
+  <si>
+    <t>HEZLIN</t>
+  </si>
+  <si>
+    <t>Retardedhead</t>
+  </si>
+  <si>
+    <t>Harry_023</t>
+  </si>
+  <si>
+    <t>Radhe_sham_1108</t>
+  </si>
+  <si>
+    <t>Shaswatsharma1</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
+  </si>
+  <si>
+    <t>UnblockNilesh</t>
+  </si>
+  <si>
+    <t>DSP6419th</t>
+  </si>
+  <si>
+    <t>🌸</t>
+  </si>
+  <si>
+    <t>LordisEverywhere</t>
+  </si>
+  <si>
+    <t>N_999_999</t>
+  </si>
+  <si>
+    <t>sweet_Kristy_04</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -476,155 +649,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,74 +850,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1032,622 +1141,573 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col width="15.7777777777778" customWidth="1" min="1" max="1"/>
-    <col width="25.75" customWidth="1" min="2" max="2"/>
-    <col width="9.33333333333333" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="9.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Idnumber</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>5080276560</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BhaKth_bH0lenath_ka</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>306.71</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>1087968824</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GroupAnonymousBot</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>23.8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>6052486101</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>O000000000O00000000O</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1587.32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1791.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
         <v>6978523303</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Saimy_02</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>151.62</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>6095300106</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>villoriaa</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
         <v>697.34</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:3">
+      <c r="A7">
         <v>5655744218</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Siiivu_official</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>84.94</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>7230617879</v>
       </c>
-      <c r="C8" t="n">
-        <v>655.26</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>855.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
         <v>2042265351</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>iiisuu</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
         <v>258.04</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:3">
+      <c r="A10">
         <v>7253921931</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>good_soul007</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
         <v>1.58</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:3">
+      <c r="A11">
         <v>7999340095</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1608.88</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1925.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
         <v>6541659493</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Literally_spaghettified</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2071.78</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>2171.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
         <v>5473966755</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Happy_jaiss</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>334.82</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>422.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>7180954313</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>On9_op</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14">
         <v>158.17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:3">
+      <c r="A15">
         <v>6559548939</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>silverdoee</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
         <v>635.22</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:3">
+      <c r="A16">
         <v>5978633421</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>freakyyfella</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
         <v>613.6</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>5429959066</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Aman</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
         <v>28.64</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:3">
+      <c r="A18">
         <v>6892127448</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SON_OF_BETTY</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
         <v>3.32</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>7167284051</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Hezal</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
         <v>165.67</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:3">
+      <c r="A20">
         <v>7459060836</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Deleted Account</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>566.3200000000001</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>828.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>7397664797</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Unforgettable_rach</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
         <v>1.66</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>6709711588</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Pastry111</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
         <v>155.89</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:3">
+      <c r="A23">
         <v>7043214520</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Keerthi901</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
         <v>13.13</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>1112874503</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>somesh_032</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>94.23999999999999</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>94.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>1291880542</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Abhishek</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
         <v>1.89</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:3">
+      <c r="A26">
         <v>7231081869</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BAJIRAMA</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26">
         <v>33.86</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>6235157237</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FTW</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
         <v>120.45</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>6352715996</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>A_K_A_Gokul</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
         <v>8.24</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>1067127529</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>rvsinghr</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>72.86</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>86.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
         <v>7303425899</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ganeshjiblessme</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:3">
+      <c r="A31">
         <v>7328502410</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>mihira79</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
         <v>13.92</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>5966712206</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
         <v>10.73</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>7430618098</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>💀</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
         <v>3.12</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:3">
+      <c r="A34">
         <v>945211132</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>literary_realm</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
         <v>12.78</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>6689052608</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>M_J_138</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1">
         <v>14.9</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>1172796743</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Aditya62393</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
         <v>5.75</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>6881170029</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ashmi0615</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>141.88</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>215.88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>5953105590</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>HEZLIN</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
         <v>78.94</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:3">
+      <c r="A39">
         <v>7392400575</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Retardedhead</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
         <v>2.31</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>1659180872</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Harry_023</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="n">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:3">
+      <c r="A41">
         <v>2073197457</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Radhe_sham_1108</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>186.07</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>259.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
         <v>5240335516</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Shaswatsharma1</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
         <v>47.86</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:3">
+      <c r="A43">
         <v>6995074011</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>ONLINE</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
         <v>43.36</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:3">
+      <c r="A44">
         <v>689744830</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>UnblockNilesh</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="n">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="1">
         <v>31.3</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:3">
+      <c r="A45">
         <v>5412562253</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>DSP6419th</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
         <v>13.41</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:3">
+      <c r="A46">
         <v>6187124204</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>🌸</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
         <v>11.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>6442047115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>9.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>5851576271</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>440.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>1518889041</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>18.76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>5782974593</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>777.31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/user_scores.xlsx
+++ b/user_scores.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Idnumber</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>sweet_Kristy_04</t>
+  </si>
+  <si>
+    <t>Affan</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +1146,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -1274,7 +1277,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1925.07</v>
+        <v>2050.07</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1285,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>2171.78</v>
+        <v>2136.78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1296,7 +1299,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>422.56</v>
+        <v>450.53</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1373,7 +1376,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>828.34</v>
+        <v>778.34</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1681,7 +1684,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>440.55</v>
+        <v>652.95</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1704,6 +1707,17 @@
       </c>
       <c r="C50">
         <v>777.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>6692181035</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>71.03</v>
       </c>
     </row>
   </sheetData>
